--- a/test/Patch.xlsx
+++ b/test/Patch.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Develop\cellnet\src\github.com\davyxu\tabtoy\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\opensource\src\github.com\davyxu\tabtoy\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ProtoTypeName: "test.ActorFile" RowFieldName: "Actor"</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -62,22 +62,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -87,6 +71,14 @@
   </si>
   <si>
     <t>超能</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -466,82 +458,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A4" sqref="A4:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>102</v>
+      </c>
+      <c r="E6">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>12</v>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
